--- a/SENAI-Sprint.1-BD/1.3/Modelo-Fisico.xlsx
+++ b/SENAI-Sprint.1-BD/1.3/Modelo-Fisico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Python Scripts\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CBB09-9022-4BB8-B8A0-C16B7C06F19D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02685E-5BF6-4C88-9556-712073900C4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00267F44-AF11-48F9-B871-E9C2996A54E6}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00267F44-AF11-48F9-B871-E9C2996A54E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio 1.3" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Nome</t>
   </si>
@@ -36,60 +36,6 @@
     <t>Endereço</t>
   </si>
   <si>
-    <t>idEndereco</t>
-  </si>
-  <si>
-    <t>Rua</t>
-  </si>
-  <si>
-    <t>Bairro</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>Cidade</t>
-  </si>
-  <si>
-    <t>João Batista</t>
-  </si>
-  <si>
-    <t>Batuíra</t>
-  </si>
-  <si>
-    <t>XX de agosto</t>
-  </si>
-  <si>
-    <t>Vila Rosa</t>
-  </si>
-  <si>
-    <t>Jd. Brasilândia</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>09861-550</t>
-  </si>
-  <si>
-    <t>09788-202</t>
-  </si>
-  <si>
-    <t>09751-778</t>
-  </si>
-  <si>
-    <t>São Bernardo do Campo</t>
-  </si>
-  <si>
-    <t>Santo André</t>
-  </si>
-  <si>
-    <t>São Caetano do Sul</t>
-  </si>
-  <si>
     <t>Clinica</t>
   </si>
   <si>
@@ -105,9 +51,6 @@
     <t>Cobasi</t>
   </si>
   <si>
-    <t>idEndereço</t>
-  </si>
-  <si>
     <t>idVeteninario</t>
   </si>
   <si>
@@ -187,6 +130,45 @@
   </si>
   <si>
     <t>idRaça</t>
+  </si>
+  <si>
+    <t>Rua Batuíra, 893 - SBC</t>
+  </si>
+  <si>
+    <t>Rua Guilhermina, 550 - SA</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>05.533.407/0001-06</t>
+  </si>
+  <si>
+    <t>53.153.938/0012-60</t>
+  </si>
+  <si>
+    <t>30.670.539/0001-19</t>
+  </si>
+  <si>
+    <t>Av. Lemos Monteiro, 82 - SCS</t>
+  </si>
+  <si>
+    <t>Atendimento</t>
+  </si>
+  <si>
+    <t>idAtendimento</t>
+  </si>
+  <si>
+    <t>DonosPet</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -194,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -213,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,12 +216,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,6 +295,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,63 +335,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,454 +734,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9784BE-DF41-4F31-BEFE-B325ECFBBC5C}">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="I2" s="19" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5">
+        <v>43864</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5">
+        <v>44034</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5">
+        <v>44089</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="I7" s="5">
+        <v>44228</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="J10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="16">
+        <v>2</v>
+      </c>
+      <c r="K13" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="16">
+        <v>3</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="16">
+        <v>4</v>
+      </c>
+      <c r="K15" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>43881</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="K18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>44099</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C20" s="14">
+        <v>44134</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C21" s="14">
+        <v>44242</v>
+      </c>
+      <c r="D21" s="13">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="11">
+        <v>3</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="11">
+        <v>4</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="11">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="11">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G26" s="11">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4">
-        <v>893</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11">
-        <v>2</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
-        <v>126</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="13">
-        <v>3</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="13">
-        <v>4</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="13">
-        <v>5</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="13">
-        <v>2</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="I9" s="13">
-        <v>6</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="13">
-        <v>2</v>
-      </c>
-      <c r="M9" s="9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="H26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="13">
-        <v>7</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="13">
-        <v>2</v>
-      </c>
-      <c r="M10" s="9">
-        <v>2</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3</v>
-      </c>
-      <c r="M11" s="9">
-        <v>3</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="11">
-        <v>3</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="7">
-        <v>43864</v>
-      </c>
-      <c r="L16" s="6">
-        <v>2</v>
-      </c>
-      <c r="M16" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="7">
-        <v>44034</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="7">
-        <v>44089</v>
-      </c>
-      <c r="L18" s="6">
-        <v>3</v>
-      </c>
-      <c r="M18" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>4</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="7">
-        <v>44228</v>
-      </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
+      <c r="I26" s="11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>